--- a/BackTest/2020-01-19 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-19 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-4012.845099999995</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-4012.845099999995</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>169</v>
@@ -521,7 +521,7 @@
         <v>-4012.845099999995</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>169</v>
@@ -562,7 +562,7 @@
         <v>-7812.845099999995</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>169</v>
@@ -603,7 +603,7 @@
         <v>-7807.845099999995</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>167.4</v>
@@ -644,7 +644,7 @@
         <v>-8036.675399999995</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>169</v>
@@ -685,7 +685,7 @@
         <v>-8106.675399999995</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>167.3</v>
@@ -726,7 +726,7 @@
         <v>-8028.675399999995</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>167.2</v>
@@ -767,7 +767,7 @@
         <v>-6928.675399999995</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>168.2</v>
@@ -808,7 +808,7 @@
         <v>-10037.33439999999</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>168.9</v>
@@ -849,7 +849,7 @@
         <v>-9849.334399999994</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>167.2</v>
@@ -890,7 +890,7 @@
         <v>-11264.33439999999</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>168.3</v>
@@ -931,7 +931,7 @@
         <v>-32972.3786</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>166.2</v>
@@ -972,7 +972,7 @@
         <v>-32967.3786</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>164.1</v>
@@ -1013,7 +1013,7 @@
         <v>-32724.4934</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>166.9</v>
@@ -1054,7 +1054,7 @@
         <v>-32373.4934</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>167</v>
@@ -1095,7 +1095,7 @@
         <v>-25951.3043948</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>168.2</v>
@@ -1136,7 +1136,7 @@
         <v>-25478.3338948</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>169.5</v>
@@ -1177,7 +1177,7 @@
         <v>-21598.3338948</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>169.6</v>
@@ -1218,7 +1218,7 @@
         <v>-26029.4350948</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>170</v>
@@ -1259,7 +1259,7 @@
         <v>-26021.4844948</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>169.5</v>
@@ -1300,7 +1300,7 @@
         <v>-26021.4844948</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>170.9</v>
@@ -1341,7 +1341,7 @@
         <v>-26915.1536948</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>170.9</v>
@@ -1382,7 +1382,7 @@
         <v>-29731.4003948</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>169.1</v>
@@ -1423,7 +1423,7 @@
         <v>-32597.9653948</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>168.1</v>
@@ -1464,7 +1464,7 @@
         <v>-32597.9653948</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>167.1</v>
@@ -1505,7 +1505,7 @@
         <v>-32540.4833948</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>167.1</v>
@@ -1546,7 +1546,7 @@
         <v>-27331.3754948</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>168.7</v>
@@ -1587,7 +1587,7 @@
         <v>-27586.7743948</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>169.4</v>
@@ -1628,7 +1628,7 @@
         <v>-26606.7743948</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>168</v>
@@ -1669,7 +1669,7 @@
         <v>-26606.7743948</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>169.3</v>
@@ -1710,7 +1710,7 @@
         <v>-26831.7743948</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>169.3</v>
@@ -1751,7 +1751,7 @@
         <v>-26796.7743948</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>168</v>
@@ -1792,7 +1792,7 @@
         <v>-37330.7743948</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>169.4</v>
@@ -1833,7 +1833,7 @@
         <v>-37330.7743948</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>168</v>
@@ -1874,7 +1874,7 @@
         <v>11012.5884052</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>168</v>
@@ -1915,7 +1915,7 @@
         <v>11020.5298052</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>169.5</v>
@@ -1956,7 +1956,7 @@
         <v>-1832.711194799997</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>171</v>
@@ -1997,7 +1997,7 @@
         <v>-1832.711194799997</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>168.7</v>
@@ -2038,7 +2038,7 @@
         <v>-1824.755594799997</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>168.7</v>
@@ -2079,7 +2079,7 @@
         <v>-1824.755594799997</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>171</v>
@@ -2120,7 +2120,7 @@
         <v>-11349.4388948</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>171</v>
@@ -2161,7 +2161,7 @@
         <v>-10169.4388948</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>169.1</v>
@@ -2202,7 +2202,7 @@
         <v>-10169.4388948</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>171.5</v>
@@ -2243,7 +2243,7 @@
         <v>-10944.9306948</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>171.5</v>
@@ -2284,7 +2284,7 @@
         <v>-10698.8430948</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>170</v>
@@ -2325,7 +2325,7 @@
         <v>-10138.7194948</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>171</v>
@@ -2366,7 +2366,7 @@
         <v>-10138.7194948</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>171.5</v>
@@ -2407,7 +2407,7 @@
         <v>-10138.7194948</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>171.5</v>
@@ -2448,7 +2448,7 @@
         <v>-13080.7194948</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>171.5</v>
@@ -2489,7 +2489,7 @@
         <v>-13072.7661327</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>171.4</v>
@@ -2530,7 +2530,7 @@
         <v>-13072.7661327</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I53" t="n">
         <v>172</v>
@@ -2571,7 +2571,7 @@
         <v>-13072.7661327</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>172</v>
@@ -2612,9 +2612,11 @@
         <v>-13064.7870327</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>172</v>
+      </c>
       <c r="J55" t="n">
         <v>169</v>
       </c>
@@ -2651,9 +2653,11 @@
         <v>16475.40926730001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>172.9</v>
+      </c>
       <c r="J56" t="n">
         <v>169</v>
       </c>
@@ -2690,9 +2694,11 @@
         <v>18675.5530673</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>173.3</v>
+      </c>
       <c r="J57" t="n">
         <v>169</v>
       </c>
@@ -2729,9 +2735,11 @@
         <v>29529.2490673</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>173.5</v>
+      </c>
       <c r="J58" t="n">
         <v>169</v>
       </c>
@@ -2768,9 +2776,11 @@
         <v>37564.1132673</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>174</v>
+      </c>
       <c r="J59" t="n">
         <v>169</v>
       </c>
@@ -2807,9 +2817,11 @@
         <v>37564.1132673</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>174.7</v>
+      </c>
       <c r="J60" t="n">
         <v>169</v>
       </c>
@@ -2846,9 +2858,11 @@
         <v>36943.7264673</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>174.7</v>
+      </c>
       <c r="J61" t="n">
         <v>169</v>
       </c>
@@ -2885,9 +2899,11 @@
         <v>36946.7264673</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>174.5</v>
+      </c>
       <c r="J62" t="n">
         <v>169</v>
       </c>
@@ -2924,9 +2940,11 @@
         <v>5121.576667300003</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>175.1</v>
+      </c>
       <c r="J63" t="n">
         <v>169</v>
       </c>
@@ -2963,9 +2981,11 @@
         <v>5124.576667300003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>173.5</v>
+      </c>
       <c r="J64" t="n">
         <v>169</v>
       </c>
@@ -3002,9 +3022,11 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>175.1</v>
+      </c>
       <c r="J65" t="n">
         <v>169</v>
       </c>
@@ -3041,9 +3063,11 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>173.6</v>
+      </c>
       <c r="J66" t="n">
         <v>169</v>
       </c>
@@ -3080,9 +3104,11 @@
         <v>4132.544667300003</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>173.6</v>
+      </c>
       <c r="J67" t="n">
         <v>169</v>
       </c>
@@ -3119,9 +3145,11 @@
         <v>5097.544667300003</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>175</v>
+      </c>
       <c r="J68" t="n">
         <v>169</v>
       </c>
@@ -3158,9 +3186,11 @@
         <v>1097.164667300003</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>175.1</v>
+      </c>
       <c r="J69" t="n">
         <v>169</v>
       </c>
@@ -3197,9 +3227,11 @@
         <v>1100.164667300003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>173.6</v>
+      </c>
       <c r="J70" t="n">
         <v>169</v>
       </c>
@@ -3236,9 +3268,11 @@
         <v>4749.912367300003</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>175</v>
+      </c>
       <c r="J71" t="n">
         <v>169</v>
       </c>
@@ -3275,9 +3309,11 @@
         <v>14861.7706673</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>175.2</v>
+      </c>
       <c r="J72" t="n">
         <v>169</v>
       </c>
@@ -3314,9 +3350,11 @@
         <v>28002.11118207</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>175.5</v>
+      </c>
       <c r="J73" t="n">
         <v>169</v>
       </c>
@@ -3353,9 +3391,11 @@
         <v>38772.2875673</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>176</v>
+      </c>
       <c r="J74" t="n">
         <v>169</v>
       </c>
@@ -3392,9 +3432,11 @@
         <v>12337.12795485</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>177</v>
+      </c>
       <c r="J75" t="n">
         <v>169</v>
       </c>
@@ -3431,9 +3473,11 @@
         <v>23572.39665485</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>176.9</v>
+      </c>
       <c r="J76" t="n">
         <v>169</v>
       </c>
@@ -3470,9 +3514,11 @@
         <v>23572.39665485</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>177</v>
+      </c>
       <c r="J77" t="n">
         <v>169</v>
       </c>
@@ -3509,9 +3555,11 @@
         <v>53244.7960424</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>177</v>
+      </c>
       <c r="J78" t="n">
         <v>169</v>
       </c>
@@ -3548,9 +3596,11 @@
         <v>13116.4557424</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>180.9</v>
+      </c>
       <c r="J79" t="n">
         <v>169</v>
       </c>
@@ -3587,9 +3637,11 @@
         <v>26688.6692424</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J80" t="n">
         <v>169</v>
       </c>
@@ -3626,9 +3678,11 @@
         <v>22338.7132424</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>180.8</v>
+      </c>
       <c r="J81" t="n">
         <v>169</v>
       </c>
@@ -3665,9 +3719,11 @@
         <v>38524.97655892</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>180.6</v>
+      </c>
       <c r="J82" t="n">
         <v>169</v>
       </c>
@@ -3704,9 +3760,11 @@
         <v>37472.03555892</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>180.9</v>
+      </c>
       <c r="J83" t="n">
         <v>169</v>
       </c>
@@ -3743,9 +3801,11 @@
         <v>56474.92215892</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>180.8</v>
+      </c>
       <c r="J84" t="n">
         <v>169</v>
       </c>
@@ -3782,9 +3842,11 @@
         <v>61500.24625892</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>181.1</v>
+      </c>
       <c r="J85" t="n">
         <v>169</v>
       </c>
@@ -3821,9 +3883,11 @@
         <v>72056.01965892001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>182</v>
+      </c>
       <c r="J86" t="n">
         <v>169</v>
       </c>
@@ -3860,9 +3924,11 @@
         <v>82137.54615892001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>182.4</v>
+      </c>
       <c r="J87" t="n">
         <v>169</v>
       </c>
@@ -3899,9 +3965,11 @@
         <v>99707.77675892001</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>183</v>
+      </c>
       <c r="J88" t="n">
         <v>169</v>
       </c>
@@ -3938,9 +4006,11 @@
         <v>181801.57685892</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>184.8</v>
+      </c>
       <c r="J89" t="n">
         <v>169</v>
       </c>
@@ -3977,9 +4047,11 @@
         <v>162274.69425892</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>186.9</v>
+      </c>
       <c r="J90" t="n">
         <v>169</v>
       </c>
@@ -4055,9 +4127,11 @@
         <v>217605.35840618</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I92" t="n">
+        <v>184.3</v>
+      </c>
       <c r="J92" t="n">
         <v>169</v>
       </c>
@@ -4094,9 +4168,11 @@
         <v>227776.08070618</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>186.8</v>
+      </c>
       <c r="J93" t="n">
         <v>169</v>
       </c>
@@ -4133,9 +4209,11 @@
         <v>250533.00930618</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>186.9</v>
+      </c>
       <c r="J94" t="n">
         <v>169</v>
       </c>
@@ -10607,7 +10685,7 @@
         <v>929709.7005002007</v>
       </c>
       <c r="H260" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
@@ -10615,15 +10693,13 @@
       </c>
       <c r="K260" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L260" t="n">
-        <v>1.153579881656805</v>
-      </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10648,11 +10724,17 @@
         <v>954305.5822002008</v>
       </c>
       <c r="H261" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>169</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10681,11 +10763,17 @@
         <v>963456.0215002007</v>
       </c>
       <c r="H262" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>169</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10714,11 +10802,17 @@
         <v>1008867.297538451</v>
       </c>
       <c r="H263" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>169</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10747,11 +10841,17 @@
         <v>991409.2358364007</v>
       </c>
       <c r="H264" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>169</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10780,11 +10880,17 @@
         <v>989799.2791364007</v>
       </c>
       <c r="H265" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>169</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10813,11 +10919,17 @@
         <v>972235.6950364007</v>
       </c>
       <c r="H266" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>169</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10846,11 +10958,17 @@
         <v>960781.9701364007</v>
       </c>
       <c r="H267" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>169</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +10997,17 @@
         <v>914865.2345088307</v>
       </c>
       <c r="H268" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>169</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10912,11 +11036,17 @@
         <v>922416.4800088307</v>
       </c>
       <c r="H269" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>169</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10948,8 +11078,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>169</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10981,8 +11117,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>169</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11014,8 +11156,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>169</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11047,8 +11195,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>169</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11080,8 +11234,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>169</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11113,8 +11273,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>169</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11146,8 +11312,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>169</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11179,8 +11351,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>169</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11212,8 +11390,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>169</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11245,8 +11429,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>169</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11278,8 +11468,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>169</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11311,8 +11507,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>169</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11344,8 +11546,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>169</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11377,8 +11585,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>169</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11410,8 +11624,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>169</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11443,8 +11663,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>169</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11473,11 +11699,17 @@
         <v>1318709.901739411</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>169</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11506,11 +11738,17 @@
         <v>1311236.016664651</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>169</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11542,8 +11780,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>169</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11575,8 +11819,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>169</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11608,8 +11858,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>169</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11641,8 +11897,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>169</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11674,8 +11936,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>169</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11707,8 +11975,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>169</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11740,8 +12014,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>169</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11773,8 +12053,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>169</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11806,8 +12092,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>169</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11839,8 +12131,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>169</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11872,8 +12170,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>169</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11905,8 +12209,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>169</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11938,8 +12248,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>169</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11971,8 +12287,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>169</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12004,8 +12326,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>169</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12037,8 +12365,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>169</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12070,8 +12404,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>169</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12103,8 +12443,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>169</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12136,8 +12482,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>169</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12169,8 +12521,14 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>169</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12202,8 +12560,14 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>169</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12235,8 +12599,14 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>169</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12268,8 +12638,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>169</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12301,8 +12677,14 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>169</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12334,8 +12716,14 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>169</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12367,8 +12755,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>169</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12400,8 +12794,14 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>169</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12830,17 @@
         <v>2902005.382026181</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>169</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12466,8 +12872,14 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>169</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12499,8 +12911,14 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>169</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12532,8 +12950,14 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>169</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12565,8 +12989,14 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>169</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12598,8 +13028,14 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>169</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12631,8 +13067,14 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>169</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12664,8 +13106,14 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>169</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12697,8 +13145,14 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>169</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12730,8 +13184,14 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>169</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12763,8 +13223,14 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>169</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +13259,17 @@
         <v>2291935.985267791</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>169</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +13298,17 @@
         <v>2319083.243302971</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>169</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12862,8 +13340,14 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>169</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12895,8 +13379,14 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>169</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12928,8 +13418,14 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>169</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12961,8 +13457,14 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>169</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12994,8 +13496,14 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>169</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13027,8 +13535,14 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>169</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13060,8 +13574,14 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>169</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13093,8 +13613,14 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>169</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13126,8 +13652,14 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>169</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13159,8 +13691,14 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>169</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13192,8 +13730,14 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>169</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13225,8 +13769,14 @@
         <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>169</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13258,8 +13808,14 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>169</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13291,8 +13847,14 @@
         <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>169</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13321,15 +13883,23 @@
         <v>2219872.760710401</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>169</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
+        <v>1.219852071005917</v>
+      </c>
+      <c r="M342" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13354,7 +13924,7 @@
         <v>2183107.199610401</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -13387,7 +13957,7 @@
         <v>2198402.750910401</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -13420,7 +13990,7 @@
         <v>2187760.479410402</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -13453,7 +14023,7 @@
         <v>2167685.628010402</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13750,7 +14320,7 @@
         <v>2267305.646454921</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -13783,7 +14353,7 @@
         <v>2265583.672454921</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13816,7 +14386,7 @@
         <v>2281122.680954921</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13849,7 +14419,7 @@
         <v>2283200.619654921</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13882,7 +14452,7 @@
         <v>2280806.309453671</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13915,7 +14485,7 @@
         <v>2327367.891352421</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13948,7 +14518,7 @@
         <v>2366037.165874721</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13981,7 +14551,7 @@
         <v>2366037.165874721</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14014,7 +14584,7 @@
         <v>2341592.44899276</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14080,7 +14650,7 @@
         <v>2320997.746792761</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14344,7 +14914,7 @@
         <v>2387041.521673461</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14410,7 +14980,7 @@
         <v>2492011.107473461</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14443,7 +15013,7 @@
         <v>2492011.107473461</v>
       </c>
       <c r="H376" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14476,7 +15046,7 @@
         <v>2645092.252645841</v>
       </c>
       <c r="H377" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14509,7 +15079,7 @@
         <v>2592334.664160741</v>
       </c>
       <c r="H378" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14542,7 +15112,7 @@
         <v>2553347.577060741</v>
       </c>
       <c r="H379" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14575,7 +15145,7 @@
         <v>2549748.865260741</v>
       </c>
       <c r="H380" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14608,7 +15178,7 @@
         <v>2535607.403460741</v>
       </c>
       <c r="H381" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -14641,7 +15211,7 @@
         <v>2538833.128760741</v>
       </c>
       <c r="H382" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14674,7 +15244,7 @@
         <v>2526005.089960741</v>
       </c>
       <c r="H383" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14707,7 +15277,7 @@
         <v>2503164.455760741</v>
       </c>
       <c r="H384" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14740,7 +15310,7 @@
         <v>2480926.501160741</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14773,7 +15343,7 @@
         <v>2449886.581260741</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14806,7 +15376,7 @@
         <v>2463457.025893471</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14839,7 +15409,7 @@
         <v>2433262.325193471</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14872,7 +15442,7 @@
         <v>2423719.367993471</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14905,7 +15475,7 @@
         <v>2423719.367993471</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14938,7 +15508,7 @@
         <v>2443408.989893471</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14971,7 +15541,7 @@
         <v>2436299.703293471</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15004,7 +15574,7 @@
         <v>2436299.703293471</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15037,7 +15607,7 @@
         <v>2420436.596862471</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15070,7 +15640,7 @@
         <v>2392930.062562471</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15103,7 +15673,7 @@
         <v>2347420.036962471</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15136,7 +15706,7 @@
         <v>2330642.324962471</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15169,7 +15739,7 @@
         <v>2330642.324962471</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15202,7 +15772,7 @@
         <v>2328522.266962471</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15235,7 +15805,7 @@
         <v>2360126.035951961</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15268,7 +15838,7 @@
         <v>2343834.151551961</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15301,7 +15871,7 @@
         <v>2344584.318251961</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15334,7 +15904,7 @@
         <v>2344584.318251961</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15367,7 +15937,7 @@
         <v>2357475.950251961</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15400,7 +15970,7 @@
         <v>2352412.927751961</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15433,7 +16003,7 @@
         <v>2312306.502551961</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15466,7 +16036,7 @@
         <v>2312306.502551961</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15499,7 +16069,7 @@
         <v>2309893.861251961</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15532,7 +16102,7 @@
         <v>2312373.208851961</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15565,7 +16135,7 @@
         <v>2316337.145551961</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15598,7 +16168,7 @@
         <v>2314033.546157961</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15631,7 +16201,7 @@
         <v>2316582.378757961</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15664,7 +16234,7 @@
         <v>2322352.891557961</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15697,7 +16267,7 @@
         <v>2325894.658857961</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15730,7 +16300,7 @@
         <v>2327048.616357961</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15763,7 +16333,7 @@
         <v>2350771.054957961</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15796,7 +16366,7 @@
         <v>2357199.959655771</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15829,7 +16399,7 @@
         <v>2362144.899555771</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15862,7 +16432,7 @@
         <v>2370187.393655771</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15895,7 +16465,7 @@
         <v>2367422.580155771</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15928,7 +16498,7 @@
         <v>2388655.123955771</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15961,7 +16531,7 @@
         <v>2398855.002655771</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15994,7 +16564,7 @@
         <v>2397092.020355771</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16027,7 +16597,7 @@
         <v>2404220.646655771</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16060,7 +16630,7 @@
         <v>2383534.157155771</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16093,7 +16663,7 @@
         <v>2383534.157155771</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16126,7 +16696,7 @@
         <v>2383534.157155771</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16159,7 +16729,7 @@
         <v>2386949.357255771</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16192,7 +16762,7 @@
         <v>2388425.097355771</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16225,7 +16795,7 @@
         <v>2381219.140655771</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16258,7 +16828,7 @@
         <v>2360528.475755771</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16291,7 +16861,7 @@
         <v>2360239.476755771</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16324,7 +16894,7 @@
         <v>2355884.305955771</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16357,7 +16927,7 @@
         <v>2329880.668255771</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16390,7 +16960,7 @@
         <v>2335499.692355771</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16423,7 +16993,7 @@
         <v>2335490.692355771</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16456,7 +17026,7 @@
         <v>2339839.558955771</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16489,7 +17059,7 @@
         <v>2369311.949455771</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16522,7 +17092,7 @@
         <v>2368263.692055771</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16555,7 +17125,7 @@
         <v>2372763.285655771</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16588,7 +17158,7 @@
         <v>2376529.868755771</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16621,7 +17191,7 @@
         <v>2368565.870655771</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16654,7 +17224,7 @@
         <v>2368759.003655771</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16687,7 +17257,7 @@
         <v>2362043.386855771</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16720,7 +17290,7 @@
         <v>2361912.193055771</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16753,7 +17323,7 @@
         <v>2362043.123055771</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16786,7 +17356,7 @@
         <v>2355115.419955771</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16819,7 +17389,7 @@
         <v>2374922.743655771</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16852,7 +17422,7 @@
         <v>2374922.743655771</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16885,7 +17455,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16918,7 +17488,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16951,7 +17521,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16984,7 +17554,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17017,7 +17587,7 @@
         <v>2377527.149555771</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17050,7 +17620,7 @@
         <v>2385747.780955771</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17083,7 +17653,7 @@
         <v>2382461.57925577</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17116,7 +17686,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17149,7 +17719,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17182,7 +17752,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17215,7 +17785,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17248,7 +17818,7 @@
         <v>2363175.66485577</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17281,7 +17851,7 @@
         <v>2343958.14785577</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17314,7 +17884,7 @@
         <v>2346055.99775577</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17347,7 +17917,7 @@
         <v>2354860.86195577</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17380,7 +17950,7 @@
         <v>2354860.86195577</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17413,7 +17983,7 @@
         <v>2314728.25425577</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17446,7 +18016,7 @@
         <v>2280364.67265577</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17479,7 +18049,7 @@
         <v>2321983.05925577</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17512,7 +18082,7 @@
         <v>2317394.45625577</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17545,7 +18115,7 @@
         <v>2304638.74365577</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17578,7 +18148,7 @@
         <v>2323326.51585577</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17611,7 +18181,7 @@
         <v>2313788.794850409</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17644,7 +18214,7 @@
         <v>2305917.051550409</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17677,7 +18247,7 @@
         <v>2300888.795050409</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17710,7 +18280,7 @@
         <v>2297344.758650409</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -17743,7 +18313,7 @@
         <v>2293144.175050409</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -17776,7 +18346,7 @@
         <v>2309767.856950409</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -17809,7 +18379,7 @@
         <v>2309767.856950409</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -17842,7 +18412,7 @@
         <v>2309767.856950409</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -17875,7 +18445,7 @@
         <v>2299094.565250409</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -17908,7 +18478,7 @@
         <v>2281829.115150409</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -17941,7 +18511,7 @@
         <v>2281829.115150409</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -17974,7 +18544,7 @@
         <v>2256753.971350409</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18007,7 +18577,7 @@
         <v>2258661.135350409</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18040,7 +18610,7 @@
         <v>2257077.074450409</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18073,7 +18643,7 @@
         <v>2257735.616850409</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18106,7 +18676,7 @@
         <v>2246367.224950409</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18139,7 +18709,7 @@
         <v>2259794.724150409</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18172,7 +18742,7 @@
         <v>2285880.689250409</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18205,7 +18775,7 @@
         <v>2293265.131050409</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18238,7 +18808,7 @@
         <v>2294652.316050409</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18271,7 +18841,7 @@
         <v>2317894.112405929</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18304,7 +18874,7 @@
         <v>2299769.336447389</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18370,7 +18940,7 @@
         <v>2317810.534747389</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18403,7 +18973,7 @@
         <v>2330678.761794119</v>
       </c>
       <c r="H496" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18436,7 +19006,7 @@
         <v>2351606.345097129</v>
       </c>
       <c r="H497" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -18469,7 +19039,7 @@
         <v>2349336.878602629</v>
       </c>
       <c r="H498" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -18502,7 +19072,7 @@
         <v>2362314.654902629</v>
       </c>
       <c r="H499" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -18535,7 +19105,7 @@
         <v>2362314.654902629</v>
       </c>
       <c r="H500" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -18568,7 +19138,7 @@
         <v>2362314.654902629</v>
       </c>
       <c r="H501" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -18601,7 +19171,7 @@
         <v>2353830.375619149</v>
       </c>
       <c r="H502" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -18634,7 +19204,7 @@
         <v>2363710.472535669</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -18667,7 +19237,7 @@
         <v>2358069.601735669</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -18700,7 +19270,7 @@
         <v>2346841.452835669</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -18733,7 +19303,7 @@
         <v>2352420.391635669</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -18766,7 +19336,7 @@
         <v>2347087.764835669</v>
       </c>
       <c r="H507" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -18799,7 +19369,7 @@
         <v>2342550.749707119</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -18832,7 +19402,7 @@
         <v>2338850.982207119</v>
       </c>
       <c r="H509" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -18865,7 +19435,7 @@
         <v>2333224.043407119</v>
       </c>
       <c r="H510" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -18898,7 +19468,7 @@
         <v>2333455.046468339</v>
       </c>
       <c r="H511" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -18931,7 +19501,7 @@
         <v>2326688.301068339</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18964,7 +19534,7 @@
         <v>2326688.301068339</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -18997,7 +19567,7 @@
         <v>2323328.485568339</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19030,7 +19600,7 @@
         <v>2332787.611768339</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19063,7 +19633,7 @@
         <v>2334518.693168339</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19096,7 +19666,7 @@
         <v>2334518.693168339</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19129,7 +19699,7 @@
         <v>2336676.690568339</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19162,7 +19732,7 @@
         <v>2354195.036568339</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19195,7 +19765,7 @@
         <v>2361130.312868339</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19228,7 +19798,7 @@
         <v>2361130.312868339</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19261,7 +19831,7 @@
         <v>2361130.312868339</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19294,7 +19864,7 @@
         <v>2374699.729368339</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19327,7 +19897,7 @@
         <v>2395962.684504939</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19360,7 +19930,7 @@
         <v>2404446.537721149</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19393,7 +19963,7 @@
         <v>2417558.345404939</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19426,7 +19996,7 @@
         <v>2449438.789504939</v>
       </c>
       <c r="H527" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -19459,7 +20029,7 @@
         <v>2476350.878027159</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -19492,7 +20062,7 @@
         <v>2476350.878027159</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -19525,7 +20095,7 @@
         <v>2466836.113827159</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -19558,7 +20128,7 @@
         <v>2458727.896627159</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -19591,7 +20161,7 @@
         <v>2458702.707527159</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -19624,7 +20194,7 @@
         <v>2458702.707527159</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -19657,7 +20227,7 @@
         <v>2458702.707527159</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -19690,7 +20260,7 @@
         <v>2453908.550727159</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19723,7 +20293,7 @@
         <v>2453908.550727159</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19756,7 +20326,7 @@
         <v>2454366.551627159</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19789,7 +20359,7 @@
         <v>2450418.023127159</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19822,7 +20392,7 @@
         <v>2407999.103727159</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19855,7 +20425,7 @@
         <v>2411500.002227159</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19888,7 +20458,7 @@
         <v>2417768.260027159</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -19921,7 +20491,7 @@
         <v>2416405.956027159</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -19954,7 +20524,7 @@
         <v>2429158.251227159</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -19987,7 +20557,7 @@
         <v>2405458.251227159</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20020,7 +20590,7 @@
         <v>2386457.459427159</v>
       </c>
       <c r="H545" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20053,7 +20623,7 @@
         <v>2388046.817827159</v>
       </c>
       <c r="H546" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20086,7 +20656,7 @@
         <v>2383516.660027158</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20119,7 +20689,7 @@
         <v>2383895.117127159</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20152,7 +20722,7 @@
         <v>2383895.117127159</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20185,7 +20755,7 @@
         <v>2389319.764527159</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20218,7 +20788,7 @@
         <v>2389117.873127159</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20251,7 +20821,7 @@
         <v>2360988.327527159</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20284,7 +20854,7 @@
         <v>2354212.910427159</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20317,7 +20887,7 @@
         <v>2221019.540578889</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20350,7 +20920,7 @@
         <v>2221019.540578889</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20383,7 +20953,7 @@
         <v>2197447.806978889</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20416,7 +20986,7 @@
         <v>2197297.806978889</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20449,7 +21019,7 @@
         <v>2247944.747878889</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20482,7 +21052,7 @@
         <v>2247944.747878889</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20515,7 +21085,7 @@
         <v>2247944.747878889</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20548,7 +21118,7 @@
         <v>2251948.003478888</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20581,7 +21151,7 @@
         <v>2263527.316678889</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20614,7 +21184,7 @@
         <v>2263527.316678889</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20647,7 +21217,7 @@
         <v>2256635.372078889</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20680,7 +21250,7 @@
         <v>2256635.372078889</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20713,7 +21283,7 @@
         <v>2256031.935078889</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20746,7 +21316,7 @@
         <v>2244447.684978889</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20779,7 +21349,7 @@
         <v>2252649.547278889</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20812,7 +21382,7 @@
         <v>2228169.813578889</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20845,7 +21415,7 @@
         <v>2240128.128778889</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20878,7 +21448,7 @@
         <v>2240128.128778889</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20911,7 +21481,7 @@
         <v>2242478.128778889</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -20944,7 +21514,7 @@
         <v>2242608.643478889</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -20977,7 +21547,7 @@
         <v>2234609.480478889</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21010,7 +21580,7 @@
         <v>2234618.480478889</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21043,7 +21613,7 @@
         <v>2228278.084278889</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21076,7 +21646,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21109,7 +21679,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21142,7 +21712,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21175,7 +21745,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21208,7 +21778,7 @@
         <v>2229891.444865109</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21241,7 +21811,7 @@
         <v>2215982.578665109</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21274,7 +21844,7 @@
         <v>2215857.037541859</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21307,7 +21877,7 @@
         <v>2197143.050741859</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21340,7 +21910,7 @@
         <v>2199185.736741859</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21373,7 +21943,7 @@
         <v>2180640.517341859</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21406,7 +21976,7 @@
         <v>2181523.281341859</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21439,7 +22009,7 @@
         <v>2185060.534841859</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21472,7 +22042,7 @@
         <v>2184772.665941859</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21505,7 +22075,7 @@
         <v>2184772.665941859</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21538,7 +22108,7 @@
         <v>2179356.880894549</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -21571,7 +22141,7 @@
         <v>2189856.880894549</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21604,7 +22174,7 @@
         <v>2188055.055494549</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21637,7 +22207,7 @@
         <v>2197520.578994549</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -21670,7 +22240,7 @@
         <v>2192246.985094549</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -21703,7 +22273,7 @@
         <v>2201238.144394549</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -21736,7 +22306,7 @@
         <v>2201238.144394549</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -21769,7 +22339,7 @@
         <v>2200951.167694549</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -21802,7 +22372,7 @@
         <v>2194168.380694549</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -21835,7 +22405,7 @@
         <v>2208440.577694549</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21868,7 +22438,7 @@
         <v>2208509.080194549</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21901,7 +22471,7 @@
         <v>2205229.351494549</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21934,7 +22504,7 @@
         <v>2205229.351494549</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21967,7 +22537,7 @@
         <v>2207456.855258099</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22000,7 +22570,7 @@
         <v>2208837.679258099</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22033,7 +22603,7 @@
         <v>2207834.982958099</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22066,7 +22636,7 @@
         <v>2207834.982958099</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22099,7 +22669,7 @@
         <v>2166791.134358099</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22132,7 +22702,7 @@
         <v>2142123.652658099</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22165,7 +22735,7 @@
         <v>2115614.071258099</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22198,7 +22768,7 @@
         <v>2132459.416658099</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22231,7 +22801,7 @@
         <v>2129276.509158099</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22264,7 +22834,7 @@
         <v>2155668.132358099</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22297,7 +22867,7 @@
         <v>2161021.076358099</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22308,6 +22878,6 @@
       <c r="M614" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-19 BackTest STEEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2694,11 +2694,9 @@
         <v>18675.5530673</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>173.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>169</v>
       </c>
@@ -2735,11 +2733,9 @@
         <v>29529.2490673</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>173.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
         <v>169</v>
       </c>
@@ -2776,11 +2772,9 @@
         <v>37564.1132673</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>174</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
         <v>169</v>
       </c>
@@ -2817,11 +2811,9 @@
         <v>37564.1132673</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>174.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
         <v>169</v>
       </c>
@@ -2858,11 +2850,9 @@
         <v>36943.7264673</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>174.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
         <v>169</v>
       </c>
@@ -2899,11 +2889,9 @@
         <v>36946.7264673</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>174.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>169</v>
       </c>
@@ -2940,11 +2928,9 @@
         <v>5121.576667300003</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>175.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>169</v>
       </c>
@@ -2981,11 +2967,9 @@
         <v>5124.576667300003</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>173.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
         <v>169</v>
       </c>
@@ -3022,11 +3006,9 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>175.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
         <v>169</v>
       </c>
@@ -3063,11 +3045,9 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>173.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>169</v>
       </c>
@@ -3104,11 +3084,9 @@
         <v>4132.544667300003</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>173.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>169</v>
       </c>
@@ -3145,11 +3123,9 @@
         <v>5097.544667300003</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>169</v>
       </c>
@@ -3186,11 +3162,9 @@
         <v>1097.164667300003</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>175.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>169</v>
       </c>
@@ -3227,11 +3201,9 @@
         <v>1100.164667300003</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>173.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>169</v>
       </c>
@@ -3268,11 +3240,9 @@
         <v>4749.912367300003</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>175</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>169</v>
       </c>
@@ -3309,11 +3279,9 @@
         <v>14861.7706673</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>175.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>169</v>
       </c>
@@ -3350,11 +3318,9 @@
         <v>28002.11118207</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>175.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>169</v>
       </c>
@@ -3391,11 +3357,9 @@
         <v>38772.2875673</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>176</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>169</v>
       </c>
@@ -3432,11 +3396,9 @@
         <v>12337.12795485</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>169</v>
       </c>
@@ -3473,11 +3435,9 @@
         <v>23572.39665485</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>176.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>169</v>
       </c>
@@ -3514,11 +3474,9 @@
         <v>23572.39665485</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>169</v>
       </c>
@@ -3555,11 +3513,9 @@
         <v>53244.7960424</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>177</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>169</v>
       </c>
@@ -3596,11 +3552,9 @@
         <v>13116.4557424</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>180.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>169</v>
       </c>
@@ -3637,11 +3591,9 @@
         <v>26688.6692424</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>180.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>169</v>
       </c>
@@ -3678,11 +3630,9 @@
         <v>22338.7132424</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>180.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>169</v>
       </c>
@@ -3719,11 +3669,9 @@
         <v>38524.97655892</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>180.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>169</v>
       </c>
@@ -3760,11 +3708,9 @@
         <v>37472.03555892</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>180.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>169</v>
       </c>
@@ -3801,11 +3747,9 @@
         <v>56474.92215892</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>180.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>169</v>
       </c>
@@ -3842,11 +3786,9 @@
         <v>61500.24625892</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>181.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>169</v>
       </c>
@@ -3883,11 +3825,9 @@
         <v>72056.01965892001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>182</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>169</v>
       </c>
@@ -3924,11 +3864,9 @@
         <v>82137.54615892001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>182.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>169</v>
       </c>
@@ -3965,11 +3903,9 @@
         <v>99707.77675892001</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>183</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>169</v>
       </c>
@@ -4006,11 +3942,9 @@
         <v>181801.57685892</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>184.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>169</v>
       </c>
@@ -4047,11 +3981,9 @@
         <v>162274.69425892</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>169</v>
       </c>
@@ -4127,11 +4059,9 @@
         <v>217605.35840618</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>184.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>169</v>
       </c>
@@ -4168,11 +4098,9 @@
         <v>227776.08070618</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>186.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>169</v>
       </c>
@@ -4209,11 +4137,9 @@
         <v>250533.00930618</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>186.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>169</v>
       </c>
@@ -4562,7 +4488,7 @@
         <v>695746.8582605601</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
@@ -4570,13 +4496,15 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>1.152396449704142</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4604,14 +4532,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>169</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4643,14 +4565,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>169</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4679,17 +4595,11 @@
         <v>739509.7218828001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>169</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4718,17 +4628,11 @@
         <v>783472.9053828001</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>169</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4760,14 +4664,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>169</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4796,17 +4694,11 @@
         <v>780976.3701261102</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>169</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4835,17 +4727,11 @@
         <v>772250.6127261102</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>169</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4877,14 +4763,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>169</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4916,14 +4796,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>169</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4955,14 +4829,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>169</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4994,14 +4862,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>169</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -5033,14 +4895,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>169</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -5072,14 +4928,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>169</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5111,14 +4961,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>169</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5147,17 +4991,11 @@
         <v>858210.0293690201</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>169</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5189,14 +5027,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>169</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5225,17 +5057,11 @@
         <v>874506.6809019702</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>169</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5264,17 +5090,11 @@
         <v>906256.3455642903</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>169</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5306,14 +5126,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>169</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5342,17 +5156,11 @@
         <v>971312.6211642904</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>169</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5381,17 +5189,11 @@
         <v>1017620.48746429</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>169</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5420,17 +5222,11 @@
         <v>993728.8154012604</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>169</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5459,17 +5255,11 @@
         <v>918972.4523555804</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>169</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5498,17 +5288,11 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>169</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5537,17 +5321,11 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>169</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5576,17 +5354,11 @@
         <v>950974.5822555805</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>169</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5615,17 +5387,11 @@
         <v>1060173.22495558</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>169</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5654,17 +5420,11 @@
         <v>1021793.13775558</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>169</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5693,17 +5453,11 @@
         <v>1031511.35905558</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>169</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5732,17 +5486,11 @@
         <v>1015930.21985558</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>169</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5774,14 +5522,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>169</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5813,14 +5555,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>169</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5852,14 +5588,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>169</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5891,14 +5621,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>169</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5930,14 +5654,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>169</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5969,14 +5687,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>169</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -6008,14 +5720,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>169</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -6047,14 +5753,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>169</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -6086,14 +5786,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>169</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6125,14 +5819,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>169</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6164,14 +5852,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>169</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6203,14 +5885,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>169</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6242,14 +5918,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>169</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6281,14 +5951,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>169</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6320,14 +5984,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>169</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6359,14 +6017,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>169</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6398,14 +6050,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>169</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6437,14 +6083,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>169</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6476,14 +6116,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>169</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6515,14 +6149,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>169</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6554,14 +6182,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>169</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6593,14 +6215,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>169</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6632,14 +6248,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>169</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6671,14 +6281,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>169</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6710,14 +6314,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>169</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6749,14 +6347,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>169</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6788,14 +6380,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>169</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6827,14 +6413,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>169</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6866,14 +6446,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>169</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6905,14 +6479,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>169</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6944,14 +6512,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>169</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6983,14 +6545,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>169</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -7022,14 +6578,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>169</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -7061,14 +6611,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>169</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -7100,14 +6644,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>169</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7139,14 +6677,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>169</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7178,14 +6710,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>169</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7217,14 +6743,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>169</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7256,14 +6776,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>169</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7295,14 +6809,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>169</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7334,14 +6842,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>169</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7373,14 +6875,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>169</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7412,14 +6908,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>169</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7451,14 +6941,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>169</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7490,14 +6974,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>169</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7529,14 +7007,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>169</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7568,14 +7040,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>169</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7607,14 +7073,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>169</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7646,14 +7106,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>169</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7685,14 +7139,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>169</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7724,14 +7172,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>169</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7763,14 +7205,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>169</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7802,14 +7238,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>169</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7841,14 +7271,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>169</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7880,14 +7304,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>169</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7919,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>169</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7958,14 +7370,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>169</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7997,14 +7403,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>169</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8036,14 +7436,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>169</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8075,14 +7469,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>169</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8114,14 +7502,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>169</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8153,14 +7535,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>169</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8192,14 +7568,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>169</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8231,14 +7601,8 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>169</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8270,14 +7634,8 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>169</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8309,14 +7667,8 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>169</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8348,14 +7700,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>169</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8387,14 +7733,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>169</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8426,14 +7766,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>169</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8465,14 +7799,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>169</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8504,14 +7832,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>169</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8543,14 +7865,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>169</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8582,14 +7898,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>169</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8621,14 +7931,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>169</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8660,14 +7964,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>169</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8699,14 +7997,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>169</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8738,14 +8030,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>169</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8777,14 +8063,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>169</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8816,14 +8096,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>169</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8855,14 +8129,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>169</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8894,14 +8162,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>169</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8933,14 +8195,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>169</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8972,14 +8228,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>169</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -9011,14 +8261,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>169</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -9050,14 +8294,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>169</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -9089,14 +8327,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>169</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9128,14 +8360,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>169</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9167,14 +8393,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>169</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9206,14 +8426,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>169</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9245,14 +8459,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>169</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9284,14 +8492,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>169</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9323,14 +8525,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>169</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9362,14 +8558,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>169</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9401,14 +8591,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>169</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9440,14 +8624,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>169</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9479,14 +8657,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>169</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9518,14 +8690,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>169</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9557,14 +8723,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>169</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9596,14 +8756,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>169</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9635,14 +8789,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>169</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9674,14 +8822,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>169</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9713,14 +8855,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>169</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9752,14 +8888,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>169</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9791,14 +8921,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>169</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9830,14 +8954,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>169</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9869,14 +8987,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>169</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9908,14 +9020,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>169</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9947,14 +9053,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>169</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9986,14 +9086,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>169</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -10025,14 +9119,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>169</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -10064,14 +9152,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>169</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10103,14 +9185,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>169</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10142,14 +9218,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>169</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10181,14 +9251,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>169</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10220,14 +9284,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>169</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10259,14 +9317,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>169</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10298,14 +9350,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>169</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10337,14 +9383,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>169</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10376,14 +9416,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>169</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10415,14 +9449,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>169</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10454,14 +9482,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>169</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10493,14 +9515,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>169</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10532,14 +9548,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>169</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10571,14 +9581,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>169</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10610,14 +9614,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>169</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10649,14 +9647,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>169</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10688,14 +9680,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>169</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10727,14 +9713,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>169</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10766,14 +9746,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>169</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10805,14 +9779,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>169</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10844,14 +9812,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>169</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10883,14 +9845,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>169</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10922,14 +9878,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>169</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10961,14 +9911,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>169</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -11000,14 +9944,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>169</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -11039,14 +9977,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>169</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -11078,14 +10010,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>169</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11117,14 +10043,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>169</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11156,14 +10076,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>169</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11195,14 +10109,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>169</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11234,14 +10142,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>169</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11273,14 +10175,8 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>169</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11312,14 +10208,8 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>169</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11351,14 +10241,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>169</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11390,14 +10274,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>169</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11429,14 +10307,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>169</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11468,14 +10340,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>169</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11507,14 +10373,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>169</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11546,14 +10406,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>169</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11585,14 +10439,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>169</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11621,17 +10469,11 @@
         <v>1390854.067922201</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>169</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11660,17 +10502,11 @@
         <v>1267195.432022201</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>169</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11699,17 +10535,11 @@
         <v>1318709.901739411</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>169</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11738,17 +10568,11 @@
         <v>1311236.016664651</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>169</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11777,17 +10601,11 @@
         <v>1258390.571964651</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>169</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11816,17 +10634,11 @@
         <v>1333525.628561261</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>169</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11855,17 +10667,11 @@
         <v>1237432.869561261</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>169</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11894,17 +10700,11 @@
         <v>1248619.041061261</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>169</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11933,17 +10733,11 @@
         <v>1266362.32826126</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>169</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11972,17 +10766,11 @@
         <v>1517115.94678725</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>169</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -12011,17 +10799,11 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>169</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12050,17 +10832,11 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>169</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12089,17 +10865,11 @@
         <v>1665446.69237805</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>169</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12128,17 +10898,11 @@
         <v>1630630.50397805</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>169</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12167,17 +10931,11 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>169</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12206,17 +10964,11 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>169</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12245,17 +10997,11 @@
         <v>1628443.340537471</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>169</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12284,17 +11030,11 @@
         <v>1567261.86043747</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>169</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12326,14 +11066,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>169</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12362,17 +11096,11 @@
         <v>1608365.199513741</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>169</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12401,17 +11129,11 @@
         <v>1767509.206135341</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>169</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12440,17 +11162,11 @@
         <v>1896453.756107771</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>169</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12482,14 +11198,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>169</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12518,17 +11228,11 @@
         <v>1989338.687978221</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>169</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12557,17 +11261,11 @@
         <v>1874818.215046531</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>169</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12596,17 +11294,11 @@
         <v>1979933.925176741</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>169</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12635,17 +11327,11 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>169</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12674,17 +11360,11 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>169</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12713,17 +11393,11 @@
         <v>2220660.701578551</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>169</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12755,14 +11429,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>169</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12794,14 +11462,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>169</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12833,14 +11495,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>169</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12872,14 +11528,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>169</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12911,14 +11561,8 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>169</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12950,14 +11594,8 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>169</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12986,17 +11624,11 @@
         <v>2615374.957708751</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>169</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13025,17 +11657,11 @@
         <v>2544471.922324531</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>169</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13064,17 +11690,11 @@
         <v>2370974.166024531</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>169</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13103,17 +11723,11 @@
         <v>2281943.998024531</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>169</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13142,17 +11756,11 @@
         <v>2322576.647924531</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>169</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13181,17 +11789,11 @@
         <v>2351762.466484941</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>169</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13220,17 +11822,11 @@
         <v>2394438.657310661</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>169</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13259,17 +11855,11 @@
         <v>2291935.985267791</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>169</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13301,14 +11891,8 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>169</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13337,17 +11921,11 @@
         <v>2319083.243302971</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>169</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13379,14 +11957,8 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>169</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13415,17 +11987,11 @@
         <v>2411111.731299691</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>169</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13457,14 +12023,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>169</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13496,14 +12056,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>169</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13535,14 +12089,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>169</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13574,14 +12122,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>169</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13613,14 +12155,8 @@
         <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>169</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13652,14 +12188,8 @@
         <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>169</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13691,14 +12221,8 @@
         <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>169</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13730,14 +12254,8 @@
         <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>169</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13766,17 +12284,11 @@
         <v>2356831.641423911</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>169</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13808,14 +12320,8 @@
         <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>169</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13844,17 +12350,11 @@
         <v>2216277.348063641</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>169</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13883,23 +12383,15 @@
         <v>2219872.760710401</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>169</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
-        <v>1.219852071005917</v>
-      </c>
-      <c r="M342" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13957,7 +12449,7 @@
         <v>2198402.750910401</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -14320,7 +12812,7 @@
         <v>2267305.646454921</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -14353,7 +12845,7 @@
         <v>2265583.672454921</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -14386,7 +12878,7 @@
         <v>2281122.680954921</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -14419,7 +12911,7 @@
         <v>2283200.619654921</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -14452,7 +12944,7 @@
         <v>2280806.309453671</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -14485,7 +12977,7 @@
         <v>2327367.891352421</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14518,7 +13010,7 @@
         <v>2366037.165874721</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14551,7 +13043,7 @@
         <v>2366037.165874721</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14584,7 +13076,7 @@
         <v>2341592.44899276</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -14650,7 +13142,7 @@
         <v>2320997.746792761</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -14914,7 +13406,7 @@
         <v>2387041.521673461</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14980,7 +13472,7 @@
         <v>2492011.107473461</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -15013,7 +13505,7 @@
         <v>2492011.107473461</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -15046,7 +13538,7 @@
         <v>2645092.252645841</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -15079,7 +13571,7 @@
         <v>2592334.664160741</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -15112,7 +13604,7 @@
         <v>2553347.577060741</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15145,7 +13637,7 @@
         <v>2549748.865260741</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15178,7 +13670,7 @@
         <v>2535607.403460741</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15211,7 +13703,7 @@
         <v>2538833.128760741</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15244,7 +13736,7 @@
         <v>2526005.089960741</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15277,7 +13769,7 @@
         <v>2503164.455760741</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -15310,7 +13802,7 @@
         <v>2480926.501160741</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15343,7 +13835,7 @@
         <v>2449886.581260741</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15376,7 +13868,7 @@
         <v>2463457.025893471</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -15409,7 +13901,7 @@
         <v>2433262.325193471</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -15442,7 +13934,7 @@
         <v>2423719.367993471</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15475,7 +13967,7 @@
         <v>2423719.367993471</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -15508,7 +14000,7 @@
         <v>2443408.989893471</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -15541,7 +14033,7 @@
         <v>2436299.703293471</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15574,7 +14066,7 @@
         <v>2436299.703293471</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15607,7 +14099,7 @@
         <v>2420436.596862471</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15640,7 +14132,7 @@
         <v>2392930.062562471</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15673,7 +14165,7 @@
         <v>2347420.036962471</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15706,7 +14198,7 @@
         <v>2330642.324962471</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15739,7 +14231,7 @@
         <v>2330642.324962471</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15772,7 +14264,7 @@
         <v>2328522.266962471</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15805,7 +14297,7 @@
         <v>2360126.035951961</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15838,7 +14330,7 @@
         <v>2343834.151551961</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15871,7 +14363,7 @@
         <v>2344584.318251961</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15904,7 +14396,7 @@
         <v>2344584.318251961</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15937,7 +14429,7 @@
         <v>2357475.950251961</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15970,7 +14462,7 @@
         <v>2352412.927751961</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16003,7 +14495,7 @@
         <v>2312306.502551961</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16036,7 +14528,7 @@
         <v>2312306.502551961</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16069,7 +14561,7 @@
         <v>2309893.861251961</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16102,7 +14594,7 @@
         <v>2312373.208851961</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16135,7 +14627,7 @@
         <v>2316337.145551961</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16168,7 +14660,7 @@
         <v>2314033.546157961</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16201,7 +14693,7 @@
         <v>2316582.378757961</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16234,7 +14726,7 @@
         <v>2322352.891557961</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16267,7 +14759,7 @@
         <v>2325894.658857961</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -16300,7 +14792,7 @@
         <v>2327048.616357961</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -16333,7 +14825,7 @@
         <v>2350771.054957961</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -16366,7 +14858,7 @@
         <v>2357199.959655771</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -16399,7 +14891,7 @@
         <v>2362144.899555771</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -16432,7 +14924,7 @@
         <v>2370187.393655771</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -16465,7 +14957,7 @@
         <v>2367422.580155771</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16498,7 +14990,7 @@
         <v>2388655.123955771</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16531,7 +15023,7 @@
         <v>2398855.002655771</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16564,7 +15056,7 @@
         <v>2397092.020355771</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16597,7 +15089,7 @@
         <v>2404220.646655771</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16630,7 +15122,7 @@
         <v>2383534.157155771</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16663,7 +15155,7 @@
         <v>2383534.157155771</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16696,7 +15188,7 @@
         <v>2383534.157155771</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16729,7 +15221,7 @@
         <v>2386949.357255771</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16762,7 +15254,7 @@
         <v>2388425.097355771</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16795,7 +15287,7 @@
         <v>2381219.140655771</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16828,7 +15320,7 @@
         <v>2360528.475755771</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -16861,7 +15353,7 @@
         <v>2360239.476755771</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -16894,7 +15386,7 @@
         <v>2355884.305955771</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16927,7 +15419,7 @@
         <v>2329880.668255771</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16960,7 +15452,7 @@
         <v>2335499.692355771</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16993,7 +15485,7 @@
         <v>2335490.692355771</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -17026,7 +15518,7 @@
         <v>2339839.558955771</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -17059,7 +15551,7 @@
         <v>2369311.949455771</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -17092,7 +15584,7 @@
         <v>2368263.692055771</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -17125,7 +15617,7 @@
         <v>2372763.285655771</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -17158,7 +15650,7 @@
         <v>2376529.868755771</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -17191,7 +15683,7 @@
         <v>2368565.870655771</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -17224,7 +15716,7 @@
         <v>2368759.003655771</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -17257,7 +15749,7 @@
         <v>2362043.386855771</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -17290,7 +15782,7 @@
         <v>2361912.193055771</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17323,7 +15815,7 @@
         <v>2362043.123055771</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17356,7 +15848,7 @@
         <v>2355115.419955771</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17389,7 +15881,7 @@
         <v>2374922.743655771</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17422,7 +15914,7 @@
         <v>2374922.743655771</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17455,7 +15947,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17488,7 +15980,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17521,7 +16013,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17554,7 +16046,7 @@
         <v>2378033.478655771</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17587,7 +16079,7 @@
         <v>2377527.149555771</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17620,7 +16112,7 @@
         <v>2385747.780955771</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17653,7 +16145,7 @@
         <v>2382461.57925577</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17686,7 +16178,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17719,7 +16211,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17752,7 +16244,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17785,7 +16277,7 @@
         <v>2378729.14805577</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17818,7 +16310,7 @@
         <v>2363175.66485577</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17851,7 +16343,7 @@
         <v>2343958.14785577</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17884,7 +16376,7 @@
         <v>2346055.99775577</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17917,7 +16409,7 @@
         <v>2354860.86195577</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17950,7 +16442,7 @@
         <v>2354860.86195577</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17983,7 +16475,7 @@
         <v>2314728.25425577</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -18016,7 +16508,7 @@
         <v>2280364.67265577</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -18049,7 +16541,7 @@
         <v>2321983.05925577</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -18082,7 +16574,7 @@
         <v>2317394.45625577</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -18115,7 +16607,7 @@
         <v>2304638.74365577</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -18148,7 +16640,7 @@
         <v>2323326.51585577</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -18181,7 +16673,7 @@
         <v>2313788.794850409</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -18214,7 +16706,7 @@
         <v>2305917.051550409</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -18247,7 +16739,7 @@
         <v>2300888.795050409</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18280,7 +16772,7 @@
         <v>2297344.758650409</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18313,7 +16805,7 @@
         <v>2293144.175050409</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -18346,7 +16838,7 @@
         <v>2309767.856950409</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -18379,7 +16871,7 @@
         <v>2309767.856950409</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -18412,7 +16904,7 @@
         <v>2309767.856950409</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -18445,7 +16937,7 @@
         <v>2299094.565250409</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -18478,7 +16970,7 @@
         <v>2281829.115150409</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -18511,7 +17003,7 @@
         <v>2281829.115150409</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -18544,7 +17036,7 @@
         <v>2256753.971350409</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -18577,7 +17069,7 @@
         <v>2258661.135350409</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -18610,7 +17102,7 @@
         <v>2257077.074450409</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -18643,7 +17135,7 @@
         <v>2257735.616850409</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -18676,7 +17168,7 @@
         <v>2246367.224950409</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -18709,7 +17201,7 @@
         <v>2259794.724150409</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -18742,7 +17234,7 @@
         <v>2285880.689250409</v>
       </c>
       <c r="H489" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -18775,7 +17267,7 @@
         <v>2293265.131050409</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -18808,7 +17300,7 @@
         <v>2294652.316050409</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -18841,7 +17333,7 @@
         <v>2317894.112405929</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18874,7 +17366,7 @@
         <v>2299769.336447389</v>
       </c>
       <c r="H493" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -18940,7 +17432,7 @@
         <v>2317810.534747389</v>
       </c>
       <c r="H495" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
@@ -18973,7 +17465,7 @@
         <v>2330678.761794119</v>
       </c>
       <c r="H496" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -19006,7 +17498,7 @@
         <v>2351606.345097129</v>
       </c>
       <c r="H497" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
@@ -19039,7 +17531,7 @@
         <v>2349336.878602629</v>
       </c>
       <c r="H498" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
@@ -19072,7 +17564,7 @@
         <v>2362314.654902629</v>
       </c>
       <c r="H499" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
@@ -19105,7 +17597,7 @@
         <v>2362314.654902629</v>
       </c>
       <c r="H500" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
@@ -19138,7 +17630,7 @@
         <v>2362314.654902629</v>
       </c>
       <c r="H501" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
@@ -19171,7 +17663,7 @@
         <v>2353830.375619149</v>
       </c>
       <c r="H502" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
@@ -19204,7 +17696,7 @@
         <v>2363710.472535669</v>
       </c>
       <c r="H503" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -19237,7 +17729,7 @@
         <v>2358069.601735669</v>
       </c>
       <c r="H504" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -19270,7 +17762,7 @@
         <v>2346841.452835669</v>
       </c>
       <c r="H505" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -19303,7 +17795,7 @@
         <v>2352420.391635669</v>
       </c>
       <c r="H506" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -19336,7 +17828,7 @@
         <v>2347087.764835669</v>
       </c>
       <c r="H507" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
@@ -19369,7 +17861,7 @@
         <v>2342550.749707119</v>
       </c>
       <c r="H508" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19402,7 +17894,7 @@
         <v>2338850.982207119</v>
       </c>
       <c r="H509" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
@@ -19435,7 +17927,7 @@
         <v>2333224.043407119</v>
       </c>
       <c r="H510" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
@@ -19468,7 +17960,7 @@
         <v>2333455.046468339</v>
       </c>
       <c r="H511" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
@@ -19501,7 +17993,7 @@
         <v>2326688.301068339</v>
       </c>
       <c r="H512" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -19534,7 +18026,7 @@
         <v>2326688.301068339</v>
       </c>
       <c r="H513" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -19567,7 +18059,7 @@
         <v>2323328.485568339</v>
       </c>
       <c r="H514" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19600,7 +18092,7 @@
         <v>2332787.611768339</v>
       </c>
       <c r="H515" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19633,7 +18125,7 @@
         <v>2334518.693168339</v>
       </c>
       <c r="H516" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19666,7 +18158,7 @@
         <v>2334518.693168339</v>
       </c>
       <c r="H517" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19699,7 +18191,7 @@
         <v>2336676.690568339</v>
       </c>
       <c r="H518" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19732,7 +18224,7 @@
         <v>2354195.036568339</v>
       </c>
       <c r="H519" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19765,7 +18257,7 @@
         <v>2361130.312868339</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19798,7 +18290,7 @@
         <v>2361130.312868339</v>
       </c>
       <c r="H521" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19831,7 +18323,7 @@
         <v>2361130.312868339</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19864,7 +18356,7 @@
         <v>2374699.729368339</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19897,7 +18389,7 @@
         <v>2395962.684504939</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19930,7 +18422,7 @@
         <v>2404446.537721149</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -19963,7 +18455,7 @@
         <v>2417558.345404939</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -19996,7 +18488,7 @@
         <v>2449438.789504939</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -20029,7 +18521,7 @@
         <v>2476350.878027159</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -20062,7 +18554,7 @@
         <v>2476350.878027159</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -20095,7 +18587,7 @@
         <v>2466836.113827159</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -20128,7 +18620,7 @@
         <v>2458727.896627159</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -20161,7 +18653,7 @@
         <v>2458702.707527159</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -20194,7 +18686,7 @@
         <v>2458702.707527159</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -20227,7 +18719,7 @@
         <v>2458702.707527159</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -20260,7 +18752,7 @@
         <v>2453908.550727159</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -20293,7 +18785,7 @@
         <v>2453908.550727159</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -20326,7 +18818,7 @@
         <v>2454366.551627159</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -20359,7 +18851,7 @@
         <v>2450418.023127159</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20392,7 +18884,7 @@
         <v>2407999.103727159</v>
       </c>
       <c r="H539" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -20425,7 +18917,7 @@
         <v>2411500.002227159</v>
       </c>
       <c r="H540" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -20458,7 +18950,7 @@
         <v>2417768.260027159</v>
       </c>
       <c r="H541" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20491,7 +18983,7 @@
         <v>2416405.956027159</v>
       </c>
       <c r="H542" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20524,7 +19016,7 @@
         <v>2429158.251227159</v>
       </c>
       <c r="H543" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20557,7 +19049,7 @@
         <v>2405458.251227159</v>
       </c>
       <c r="H544" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20590,7 +19082,7 @@
         <v>2386457.459427159</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -20623,7 +19115,7 @@
         <v>2388046.817827159</v>
       </c>
       <c r="H546" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20656,7 +19148,7 @@
         <v>2383516.660027158</v>
       </c>
       <c r="H547" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -20689,7 +19181,7 @@
         <v>2383895.117127159</v>
       </c>
       <c r="H548" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
@@ -20722,7 +19214,7 @@
         <v>2383895.117127159</v>
       </c>
       <c r="H549" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20755,7 +19247,7 @@
         <v>2389319.764527159</v>
       </c>
       <c r="H550" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20788,7 +19280,7 @@
         <v>2389117.873127159</v>
       </c>
       <c r="H551" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20821,7 +19313,7 @@
         <v>2360988.327527159</v>
       </c>
       <c r="H552" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20854,7 +19346,7 @@
         <v>2354212.910427159</v>
       </c>
       <c r="H553" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20887,7 +19379,7 @@
         <v>2221019.540578889</v>
       </c>
       <c r="H554" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20920,7 +19412,7 @@
         <v>2221019.540578889</v>
       </c>
       <c r="H555" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20953,7 +19445,7 @@
         <v>2197447.806978889</v>
       </c>
       <c r="H556" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20986,7 +19478,7 @@
         <v>2197297.806978889</v>
       </c>
       <c r="H557" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -21019,7 +19511,7 @@
         <v>2247944.747878889</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -21052,7 +19544,7 @@
         <v>2247944.747878889</v>
       </c>
       <c r="H559" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -21085,7 +19577,7 @@
         <v>2247944.747878889</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -21118,7 +19610,7 @@
         <v>2251948.003478888</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -21151,7 +19643,7 @@
         <v>2263527.316678889</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -21184,7 +19676,7 @@
         <v>2263527.316678889</v>
       </c>
       <c r="H563" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -21217,7 +19709,7 @@
         <v>2256635.372078889</v>
       </c>
       <c r="H564" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -21250,7 +19742,7 @@
         <v>2256635.372078889</v>
       </c>
       <c r="H565" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -21283,7 +19775,7 @@
         <v>2256031.935078889</v>
       </c>
       <c r="H566" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -21316,7 +19808,7 @@
         <v>2244447.684978889</v>
       </c>
       <c r="H567" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -21349,7 +19841,7 @@
         <v>2252649.547278889</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -21382,7 +19874,7 @@
         <v>2228169.813578889</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -21415,7 +19907,7 @@
         <v>2240128.128778889</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -21448,7 +19940,7 @@
         <v>2240128.128778889</v>
       </c>
       <c r="H571" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -21481,7 +19973,7 @@
         <v>2242478.128778889</v>
       </c>
       <c r="H572" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21514,7 +20006,7 @@
         <v>2242608.643478889</v>
       </c>
       <c r="H573" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21547,7 +20039,7 @@
         <v>2234609.480478889</v>
       </c>
       <c r="H574" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21580,7 +20072,7 @@
         <v>2234618.480478889</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21613,7 +20105,7 @@
         <v>2228278.084278889</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21646,7 +20138,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H577" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21679,7 +20171,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H578" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21712,7 +20204,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H579" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21745,7 +20237,7 @@
         <v>2226378.657378889</v>
       </c>
       <c r="H580" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21778,7 +20270,7 @@
         <v>2229891.444865109</v>
       </c>
       <c r="H581" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21811,7 +20303,7 @@
         <v>2215982.578665109</v>
       </c>
       <c r="H582" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21844,7 +20336,7 @@
         <v>2215857.037541859</v>
       </c>
       <c r="H583" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21877,7 +20369,7 @@
         <v>2197143.050741859</v>
       </c>
       <c r="H584" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21910,7 +20402,7 @@
         <v>2199185.736741859</v>
       </c>
       <c r="H585" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21943,7 +20435,7 @@
         <v>2180640.517341859</v>
       </c>
       <c r="H586" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21976,7 +20468,7 @@
         <v>2181523.281341859</v>
       </c>
       <c r="H587" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -22009,7 +20501,7 @@
         <v>2185060.534841859</v>
       </c>
       <c r="H588" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -22042,7 +20534,7 @@
         <v>2184772.665941859</v>
       </c>
       <c r="H589" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -22075,7 +20567,7 @@
         <v>2184772.665941859</v>
       </c>
       <c r="H590" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -22108,7 +20600,7 @@
         <v>2179356.880894549</v>
       </c>
       <c r="H591" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -22141,7 +20633,7 @@
         <v>2189856.880894549</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -22174,7 +20666,7 @@
         <v>2188055.055494549</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -22207,7 +20699,7 @@
         <v>2197520.578994549</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22240,7 +20732,7 @@
         <v>2192246.985094549</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -22273,7 +20765,7 @@
         <v>2201238.144394549</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -22306,7 +20798,7 @@
         <v>2201238.144394549</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -22339,7 +20831,7 @@
         <v>2200951.167694549</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -22372,7 +20864,7 @@
         <v>2194168.380694549</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -22405,7 +20897,7 @@
         <v>2208440.577694549</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -22438,7 +20930,7 @@
         <v>2208509.080194549</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -22471,7 +20963,7 @@
         <v>2205229.351494549</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -22504,7 +20996,7 @@
         <v>2205229.351494549</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -22537,7 +21029,7 @@
         <v>2207456.855258099</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -22570,7 +21062,7 @@
         <v>2208837.679258099</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -22603,7 +21095,7 @@
         <v>2207834.982958099</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -22636,7 +21128,7 @@
         <v>2207834.982958099</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -22669,7 +21161,7 @@
         <v>2166791.134358099</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -22702,7 +21194,7 @@
         <v>2142123.652658099</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22735,7 +21227,7 @@
         <v>2115614.071258099</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22768,7 +21260,7 @@
         <v>2132459.416658099</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22801,7 +21293,7 @@
         <v>2129276.509158099</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22834,7 +21326,7 @@
         <v>2155668.132358099</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22867,7 +21359,7 @@
         <v>2161021.076358099</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22878,6 +21370,6 @@
       <c r="M614" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest STEEM.xlsx
+++ b/BackTest/2020-01-19 BackTest STEEM.xlsx
@@ -2694,9 +2694,11 @@
         <v>18675.5530673</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>173.3</v>
+      </c>
       <c r="J57" t="n">
         <v>169</v>
       </c>
@@ -2733,9 +2735,11 @@
         <v>29529.2490673</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>173.5</v>
+      </c>
       <c r="J58" t="n">
         <v>169</v>
       </c>
@@ -2772,9 +2776,11 @@
         <v>37564.1132673</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>174</v>
+      </c>
       <c r="J59" t="n">
         <v>169</v>
       </c>
@@ -2811,9 +2817,11 @@
         <v>37564.1132673</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>174.7</v>
+      </c>
       <c r="J60" t="n">
         <v>169</v>
       </c>
@@ -2850,9 +2858,11 @@
         <v>36943.7264673</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>174.7</v>
+      </c>
       <c r="J61" t="n">
         <v>169</v>
       </c>
@@ -2889,9 +2899,11 @@
         <v>36946.7264673</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>174.5</v>
+      </c>
       <c r="J62" t="n">
         <v>169</v>
       </c>
@@ -2928,9 +2940,11 @@
         <v>5121.576667300003</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>175.1</v>
+      </c>
       <c r="J63" t="n">
         <v>169</v>
       </c>
@@ -2967,9 +2981,11 @@
         <v>5124.576667300003</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>173.5</v>
+      </c>
       <c r="J64" t="n">
         <v>169</v>
       </c>
@@ -3006,9 +3022,11 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>175.1</v>
+      </c>
       <c r="J65" t="n">
         <v>169</v>
       </c>
@@ -3045,9 +3063,11 @@
         <v>4124.576667300003</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>173.6</v>
+      </c>
       <c r="J66" t="n">
         <v>169</v>
       </c>
@@ -3084,9 +3104,11 @@
         <v>4132.544667300003</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>173.6</v>
+      </c>
       <c r="J67" t="n">
         <v>169</v>
       </c>
@@ -3123,9 +3145,11 @@
         <v>5097.544667300003</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>175</v>
+      </c>
       <c r="J68" t="n">
         <v>169</v>
       </c>
@@ -3162,9 +3186,11 @@
         <v>1097.164667300003</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>175.1</v>
+      </c>
       <c r="J69" t="n">
         <v>169</v>
       </c>
@@ -3201,9 +3227,11 @@
         <v>1100.164667300003</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>173.6</v>
+      </c>
       <c r="J70" t="n">
         <v>169</v>
       </c>
@@ -3240,9 +3268,11 @@
         <v>4749.912367300003</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>175</v>
+      </c>
       <c r="J71" t="n">
         <v>169</v>
       </c>
@@ -3279,9 +3309,11 @@
         <v>14861.7706673</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>175.2</v>
+      </c>
       <c r="J72" t="n">
         <v>169</v>
       </c>
@@ -3318,9 +3350,11 @@
         <v>28002.11118207</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>175.5</v>
+      </c>
       <c r="J73" t="n">
         <v>169</v>
       </c>
@@ -3357,9 +3391,11 @@
         <v>38772.2875673</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>176</v>
+      </c>
       <c r="J74" t="n">
         <v>169</v>
       </c>
@@ -3396,9 +3432,11 @@
         <v>12337.12795485</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>177</v>
+      </c>
       <c r="J75" t="n">
         <v>169</v>
       </c>
@@ -3435,9 +3473,11 @@
         <v>23572.39665485</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>176.9</v>
+      </c>
       <c r="J76" t="n">
         <v>169</v>
       </c>
@@ -4488,7 +4528,7 @@
         <v>695746.8582605601</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
@@ -4496,15 +4536,13 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.152396449704142</v>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4532,8 +4570,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>169</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4565,8 +4609,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>169</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4595,11 +4645,17 @@
         <v>739509.7218828001</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>169</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4628,11 +4684,17 @@
         <v>783472.9053828001</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>169</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4664,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>169</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4694,11 +4762,17 @@
         <v>780976.3701261102</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>169</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4727,11 +4801,17 @@
         <v>772250.6127261102</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>169</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4763,8 +4843,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>169</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4796,8 +4882,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>169</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4829,8 +4921,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>169</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4862,8 +4960,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>169</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4895,8 +4999,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>169</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4928,8 +5038,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>169</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4961,8 +5077,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>169</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4991,11 +5113,17 @@
         <v>858210.0293690201</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>169</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5027,8 +5155,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>169</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5057,11 +5191,17 @@
         <v>874506.6809019702</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>169</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5090,11 +5230,17 @@
         <v>906256.3455642903</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>169</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5126,8 +5272,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>169</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5156,11 +5308,17 @@
         <v>971312.6211642904</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>169</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5189,11 +5347,17 @@
         <v>1017620.48746429</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>169</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5222,11 +5386,17 @@
         <v>993728.8154012604</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>169</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5255,11 +5425,17 @@
         <v>918972.4523555804</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>169</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5288,11 +5464,17 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>169</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5321,11 +5503,17 @@
         <v>916051.9510555804</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>169</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5354,11 +5542,17 @@
         <v>950974.5822555805</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>169</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5387,11 +5581,17 @@
         <v>1060173.22495558</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>169</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5420,11 +5620,17 @@
         <v>1021793.13775558</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>169</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5453,11 +5659,17 @@
         <v>1031511.35905558</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>169</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5486,11 +5698,17 @@
         <v>1015930.21985558</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>169</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5522,8 +5740,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>169</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5555,8 +5779,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>169</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5588,8 +5818,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>169</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5621,8 +5857,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>169</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5654,8 +5896,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>169</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5687,8 +5935,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>169</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5720,8 +5974,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>169</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5753,8 +6013,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>169</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5786,8 +6052,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>169</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5819,8 +6091,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>169</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5852,8 +6130,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>169</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5885,8 +6169,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>169</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5918,8 +6208,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>169</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5951,8 +6247,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>169</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5984,8 +6286,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>169</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6017,8 +6325,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>169</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6050,8 +6364,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>169</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6083,8 +6403,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>169</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6116,8 +6442,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>169</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6149,8 +6481,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>169</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6182,8 +6520,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>169</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6215,8 +6559,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>169</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6248,8 +6598,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>169</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6281,8 +6637,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>169</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6314,8 +6676,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>169</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6347,8 +6715,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>169</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6380,8 +6754,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>169</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6413,8 +6793,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>169</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6446,8 +6832,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>169</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6479,8 +6871,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>169</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6512,8 +6910,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>169</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6545,8 +6949,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>169</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6578,8 +6988,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>169</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6611,8 +7027,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>169</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6644,8 +7066,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>169</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6677,8 +7105,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>169</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6710,8 +7144,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>169</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6743,8 +7183,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>169</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6776,8 +7222,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>169</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6809,8 +7261,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>169</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6842,8 +7300,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>169</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6875,8 +7339,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>169</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6908,8 +7378,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>169</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6941,8 +7417,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>169</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6974,8 +7456,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>169</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7007,8 +7495,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>169</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7040,8 +7534,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>169</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7073,8 +7573,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>169</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7106,8 +7612,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>169</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7139,8 +7651,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>169</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7172,8 +7690,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>169</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7205,8 +7729,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>169</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7238,8 +7768,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>169</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7271,8 +7807,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>169</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7304,8 +7846,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>169</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7337,8 +7885,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>169</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7370,8 +7924,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>169</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7403,8 +7963,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>169</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7436,8 +8002,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>169</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7469,8 +8041,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>169</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7502,8 +8080,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>169</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7535,8 +8119,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>169</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7568,8 +8158,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>169</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7601,8 +8197,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>169</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7634,8 +8236,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>169</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7667,8 +8275,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>169</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7700,8 +8314,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>169</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7733,8 +8353,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>169</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7766,8 +8392,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>169</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7799,8 +8431,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>169</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7832,8 +8470,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>169</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7865,8 +8509,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>169</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7898,8 +8548,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>169</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7931,8 +8587,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>169</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7964,8 +8626,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>169</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7997,8 +8665,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>169</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8030,8 +8704,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>169</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8063,8 +8743,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>169</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8096,8 +8782,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>169</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8129,8 +8821,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>169</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8162,8 +8860,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>169</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8195,8 +8899,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>169</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8228,8 +8938,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>169</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8261,8 +8977,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>169</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8294,8 +9016,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>169</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8327,8 +9055,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>169</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8360,8 +9094,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>169</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8393,8 +9133,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>169</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8426,8 +9172,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>169</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8459,8 +9211,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>169</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8492,8 +9250,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>169</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8525,8 +9289,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>169</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8558,8 +9328,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>169</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8591,8 +9367,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>169</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8624,8 +9406,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>169</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8657,8 +9445,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>169</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8690,8 +9484,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>169</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8723,8 +9523,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>169</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8756,8 +9562,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>169</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8789,8 +9601,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>169</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8822,8 +9640,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>169</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8855,8 +9679,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>169</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8888,8 +9718,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>169</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8921,8 +9757,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>169</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8954,8 +9796,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>169</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8987,8 +9835,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>169</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9020,8 +9874,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>169</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9053,8 +9913,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>169</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9086,8 +9952,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>169</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9119,8 +9991,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>169</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9152,8 +10030,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>169</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9185,8 +10069,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>169</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9218,8 +10108,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>169</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9251,8 +10147,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>169</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9284,8 +10186,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>169</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9317,8 +10225,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>169</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9350,8 +10264,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>169</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9383,8 +10303,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>169</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9416,8 +10342,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>169</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9449,8 +10381,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>169</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9482,8 +10420,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>169</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9515,8 +10459,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>169</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9548,8 +10498,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>169</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9581,8 +10537,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>169</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9614,8 +10576,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>169</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9647,8 +10615,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>169</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9680,8 +10654,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>169</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9713,8 +10693,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>169</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9746,8 +10732,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>169</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9779,8 +10771,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>169</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9812,8 +10810,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>169</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9845,8 +10849,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>169</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9878,8 +10888,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>169</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9911,8 +10927,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>169</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9944,8 +10966,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>169</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9977,8 +11005,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>169</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10010,8 +11044,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>169</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10043,8 +11083,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>169</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10076,8 +11122,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>169</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10109,8 +11161,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>169</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10142,8 +11200,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>169</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10175,8 +11239,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>169</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10208,8 +11278,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>169</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10241,8 +11317,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>169</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10274,8 +11356,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>169</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10307,8 +11395,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>169</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10340,8 +11434,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>169</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10373,8 +11473,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>169</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10406,8 +11512,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>169</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10439,8 +11551,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>169</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10469,11 +11587,17 @@
         <v>1390854.067922201</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>169</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10502,11 +11626,17 @@
         <v>1267195.432022201</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>169</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10535,11 +11665,17 @@
         <v>1318709.901739411</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>169</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10568,11 +11704,17 @@
         <v>1311236.016664651</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>169</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10601,11 +11743,17 @@
         <v>1258390.571964651</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>169</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10634,11 +11782,17 @@
         <v>1333525.628561261</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>169</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10667,11 +11821,17 @@
         <v>1237432.869561261</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>169</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10700,11 +11860,17 @@
         <v>1248619.041061261</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>169</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10733,11 +11899,17 @@
         <v>1266362.32826126</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>169</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10766,11 +11938,17 @@
         <v>1517115.94678725</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>169</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10799,11 +11977,17 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>169</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10832,11 +12016,17 @@
         <v>1632156.43347931</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>169</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10865,11 +12055,17 @@
         <v>1665446.69237805</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>169</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10898,11 +12094,17 @@
         <v>1630630.50397805</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>169</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10931,11 +12133,17 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>169</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10964,11 +12172,17 @@
         <v>1658234.37993747</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>169</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10997,11 +12211,17 @@
         <v>1628443.340537471</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>169</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11030,11 +12250,17 @@
         <v>1567261.86043747</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>169</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11066,8 +12292,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>169</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11096,11 +12328,17 @@
         <v>1608365.199513741</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>169</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11129,11 +12367,17 @@
         <v>1767509.206135341</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>169</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11162,11 +12406,17 @@
         <v>1896453.756107771</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>169</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11198,8 +12448,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>169</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11228,11 +12484,17 @@
         <v>1989338.687978221</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>169</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11261,11 +12523,17 @@
         <v>1874818.215046531</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>169</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11294,11 +12562,17 @@
         <v>1979933.925176741</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>169</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11327,11 +12601,17 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>169</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11360,11 +12640,17 @@
         <v>2107931.180297761</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>169</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11393,11 +12679,17 @@
         <v>2220660.701578551</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>169</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11429,8 +12721,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>169</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11459,15 +12757,23 @@
         <v>2667942.439797761</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>169</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+        <v>1.416893491124261</v>
+      </c>
+      <c r="M314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11492,7 +12798,7 @@
         <v>2902005.382026181</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11525,7 +12831,7 @@
         <v>2655747.729690061</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11558,7 +12864,7 @@
         <v>2753104.054464381</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11591,7 +12897,7 @@
         <v>2804829.992579101</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -11756,7 +13062,7 @@
         <v>2322576.647924531</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11789,7 +13095,7 @@
         <v>2351762.466484941</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11822,7 +13128,7 @@
         <v>2394438.657310661</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11855,7 +13161,7 @@
         <v>2291935.985267791</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11921,7 +13227,7 @@
         <v>2319083.243302971</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11987,7 +13293,7 @@
         <v>2411111.731299691</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12086,7 +13392,7 @@
         <v>2449005.477699691</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12119,7 +13425,7 @@
         <v>2434965.056499691</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12152,7 +13458,7 @@
         <v>2409479.501299691</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12185,7 +13491,7 @@
         <v>2345580.987799691</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12218,7 +13524,7 @@
         <v>2344006.184799691</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12251,7 +13557,7 @@
         <v>2318075.399699691</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12350,7 +13656,7 @@
         <v>2216277.348063641</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -13571,7 +14877,7 @@
         <v>2592334.664160741</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13604,7 +14910,7 @@
         <v>2553347.577060741</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13637,7 +14943,7 @@
         <v>2549748.865260741</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13670,7 +14976,7 @@
         <v>2535607.403460741</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13703,7 +15009,7 @@
         <v>2538833.128760741</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13736,7 +15042,7 @@
         <v>2526005.089960741</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13769,7 +15075,7 @@
         <v>2503164.455760741</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13802,7 +15108,7 @@
         <v>2480926.501160741</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13835,7 +15141,7 @@
         <v>2449886.581260741</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
